--- a/horas.xlsx
+++ b/horas.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="27">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -822,7 +822,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="41">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
@@ -922,7 +922,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61">
@@ -1062,7 +1062,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69">
@@ -1122,7 +1122,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72">
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="83">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>22.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="103">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="134">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136">
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="145">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="150">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="152">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="154">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="158">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="165">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="173">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="181">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="183">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="190">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="193">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="196">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="199">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="201">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="204">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="210">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="221">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="226">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="228">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="232">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>15.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="240">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>9.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="249">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="253">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="265">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="268">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="273">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="289">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="291">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="300">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="308">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="314">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="318">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="320">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="322">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="325">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="334">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="336">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="339">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="341">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="352">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="367">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="369">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="372">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="377">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="383">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="389">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="394">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="397">
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="404">
@@ -4492,7 +4492,7 @@
         </is>
       </c>
       <c r="B406" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="407">
@@ -4502,7 +4502,7 @@
         </is>
       </c>
       <c r="B407" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="408">
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B409" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="410">
@@ -4532,7 +4532,7 @@
         </is>
       </c>
       <c r="B410" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411">
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B412" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="413">
@@ -4592,7 +4592,7 @@
         </is>
       </c>
       <c r="B416" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="417">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419">
@@ -4652,7 +4652,7 @@
         </is>
       </c>
       <c r="B422" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="423">
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B423" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="424">
@@ -4672,7 +4672,7 @@
         </is>
       </c>
       <c r="B424" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425">
@@ -4682,7 +4682,7 @@
         </is>
       </c>
       <c r="B425" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="426">
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B426" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="428">
@@ -4742,7 +4742,7 @@
         </is>
       </c>
       <c r="B431" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="432">
@@ -4782,7 +4782,7 @@
         </is>
       </c>
       <c r="B435" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="436">
@@ -4792,7 +4792,7 @@
         </is>
       </c>
       <c r="B436" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="437">
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="B438" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="439">
@@ -4822,7 +4822,7 @@
         </is>
       </c>
       <c r="B439" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440">
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B440" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="441">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="445">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="B447" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="448">
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="B448" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="449">
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="B452" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="453">
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B454" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="455">
@@ -4992,7 +4992,7 @@
         </is>
       </c>
       <c r="B456" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="457">
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="B457" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="458">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="459">
@@ -5022,7 +5022,7 @@
         </is>
       </c>
       <c r="B459" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="460">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="B460" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="461">
@@ -5052,7 +5052,7 @@
         </is>
       </c>
       <c r="B462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="464">
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B465" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="466">
@@ -5092,7 +5092,7 @@
         </is>
       </c>
       <c r="B466" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="467">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="470">
@@ -5132,7 +5132,7 @@
         </is>
       </c>
       <c r="B470" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="471">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="B473" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="474">
@@ -5172,7 +5172,7 @@
         </is>
       </c>
       <c r="B474" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="475">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="476">
@@ -5192,7 +5192,7 @@
         </is>
       </c>
       <c r="B476" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="477">
@@ -5232,7 +5232,7 @@
         </is>
       </c>
       <c r="B480" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="481">
@@ -5262,7 +5262,7 @@
         </is>
       </c>
       <c r="B483" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="484">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="485">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="488">
@@ -5322,7 +5322,7 @@
         </is>
       </c>
       <c r="B489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490">
@@ -5332,7 +5332,7 @@
         </is>
       </c>
       <c r="B490" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="491">
@@ -5372,7 +5372,7 @@
         </is>
       </c>
       <c r="B494" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="495">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="497">
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B498" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="499">
@@ -5462,7 +5462,7 @@
         </is>
       </c>
       <c r="B503" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="504">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="512">
@@ -5562,7 +5562,7 @@
         </is>
       </c>
       <c r="B513" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="514">
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="B518" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519">
@@ -5622,7 +5622,7 @@
         </is>
       </c>
       <c r="B519" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="520">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="521">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="B525" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="526">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="532">
@@ -5752,7 +5752,7 @@
         </is>
       </c>
       <c r="B532" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="533">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="534">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="539">
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="B539" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="540">
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="B540" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="541">
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="B542" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="543">
@@ -5872,7 +5872,7 @@
         </is>
       </c>
       <c r="B544" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="545">
@@ -5882,7 +5882,7 @@
         </is>
       </c>
       <c r="B545" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="546">
@@ -5902,7 +5902,7 @@
         </is>
       </c>
       <c r="B547" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="548">
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="B548" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="549">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="550">
@@ -5962,7 +5962,7 @@
         </is>
       </c>
       <c r="B553" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="554">
@@ -5982,7 +5982,7 @@
         </is>
       </c>
       <c r="B555" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="556">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="558">
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="B558" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="559">
@@ -6022,7 +6022,7 @@
         </is>
       </c>
       <c r="B559" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="560">
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B563" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="564">
@@ -6082,7 +6082,7 @@
         </is>
       </c>
       <c r="B565" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="566">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="569">
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="B569" t="n">
-        <v>27.5</v>
+        <v>31.5</v>
       </c>
     </row>
     <row r="570">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572">
@@ -6152,7 +6152,7 @@
         </is>
       </c>
       <c r="B572" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="573">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="574">
@@ -6172,7 +6172,7 @@
         </is>
       </c>
       <c r="B574" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="575">
@@ -6192,7 +6192,7 @@
         </is>
       </c>
       <c r="B576" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="577">
@@ -6222,7 +6222,7 @@
         </is>
       </c>
       <c r="B579" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="580">
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="B581" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="582">
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B582" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="583">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="588">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="B588" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="589">
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B591" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="592">
@@ -6352,7 +6352,7 @@
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="593">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="595">
@@ -6382,7 +6382,7 @@
         </is>
       </c>
       <c r="B595" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="596">
@@ -6392,7 +6392,7 @@
         </is>
       </c>
       <c r="B596" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="597">
@@ -6402,7 +6402,7 @@
         </is>
       </c>
       <c r="B597" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="598">
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="B598" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="599">
@@ -6432,7 +6432,7 @@
         </is>
       </c>
       <c r="B600" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="601">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="602">
@@ -6472,7 +6472,7 @@
         </is>
       </c>
       <c r="B604" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="605">
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B605" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="606">
@@ -6572,7 +6572,7 @@
         </is>
       </c>
       <c r="B614" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="615">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="616">
@@ -6602,7 +6602,7 @@
         </is>
       </c>
       <c r="B617" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="618">
@@ -6612,7 +6612,7 @@
         </is>
       </c>
       <c r="B618" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="619">
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B619" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="620">
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B621" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="622">
@@ -6652,7 +6652,7 @@
         </is>
       </c>
       <c r="B622" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="623">
@@ -6672,7 +6672,7 @@
         </is>
       </c>
       <c r="B624" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="625">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="626">
@@ -6702,7 +6702,7 @@
         </is>
       </c>
       <c r="B627" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
     <row r="628">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="629">
@@ -6782,7 +6782,7 @@
         </is>
       </c>
       <c r="B635" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="636">
@@ -6792,7 +6792,7 @@
         </is>
       </c>
       <c r="B636" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="637">
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="B638" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="639">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="640">
@@ -6842,7 +6842,7 @@
         </is>
       </c>
       <c r="B641" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="642">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="649">
@@ -6922,7 +6922,7 @@
         </is>
       </c>
       <c r="B649" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="650">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="651">
@@ -6942,7 +6942,7 @@
         </is>
       </c>
       <c r="B651" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="652">
@@ -6952,7 +6952,7 @@
         </is>
       </c>
       <c r="B652" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="653">
@@ -6962,7 +6962,7 @@
         </is>
       </c>
       <c r="B653" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="654">
@@ -6972,7 +6972,7 @@
         </is>
       </c>
       <c r="B654" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="655">
@@ -6992,7 +6992,7 @@
         </is>
       </c>
       <c r="B656" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="657">
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="B657" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
     </row>
     <row r="658">
@@ -7012,7 +7012,7 @@
         </is>
       </c>
       <c r="B658" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="659">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="666">
@@ -7092,7 +7092,7 @@
         </is>
       </c>
       <c r="B666" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="667">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="668">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="669">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="670">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="672">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="676">
@@ -7232,7 +7232,7 @@
         </is>
       </c>
       <c r="B680" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="685">
@@ -7282,7 +7282,7 @@
         </is>
       </c>
       <c r="B685" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="686">
@@ -7312,7 +7312,7 @@
         </is>
       </c>
       <c r="B688" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="689">
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B689" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="690">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="691">
@@ -7342,7 +7342,7 @@
         </is>
       </c>
       <c r="B691" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="692">
@@ -7352,7 +7352,7 @@
         </is>
       </c>
       <c r="B692" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="693">
@@ -7362,7 +7362,7 @@
         </is>
       </c>
       <c r="B693" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="694">
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="B694" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="695">
@@ -7402,7 +7402,7 @@
         </is>
       </c>
       <c r="B697" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="698">
@@ -7432,7 +7432,7 @@
         </is>
       </c>
       <c r="B700" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="701">
@@ -7442,7 +7442,7 @@
         </is>
       </c>
       <c r="B701" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="702">
@@ -7452,7 +7452,7 @@
         </is>
       </c>
       <c r="B702" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="703">
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B703" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="704">
@@ -7492,7 +7492,7 @@
         </is>
       </c>
       <c r="B706" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="707">
@@ -7532,7 +7532,7 @@
         </is>
       </c>
       <c r="B710" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="711">
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B711" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="712">
@@ -7552,7 +7552,7 @@
         </is>
       </c>
       <c r="B712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713">
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="B714" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="715">
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="B715" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="716">
@@ -7592,7 +7592,7 @@
         </is>
       </c>
       <c r="B716" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="717">
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B717" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="718">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="719">
@@ -7672,7 +7672,7 @@
         </is>
       </c>
       <c r="B724" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="725">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="727">
@@ -7702,7 +7702,7 @@
         </is>
       </c>
       <c r="B727" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="728">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="729">
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="B729" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="730">
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B731" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="732">
@@ -7752,7 +7752,7 @@
         </is>
       </c>
       <c r="B732" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="733">
@@ -7822,7 +7822,7 @@
         </is>
       </c>
       <c r="B739" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66">
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="93">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="116">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="136">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="139">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="146">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="163">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="166">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="168">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="170">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
     </row>
     <row r="190">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="199">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="228">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="235">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>15.5</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="249">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="259">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="274">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>19.5</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="283">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="286">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="299">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="306">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="308">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="327">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="331">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="341">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="358">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="366">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="368">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="376">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="394">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="402">
@@ -4602,7 +4602,7 @@
         </is>
       </c>
       <c r="B417" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="418">
@@ -4612,7 +4612,7 @@
         </is>
       </c>
       <c r="B418" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="419">
@@ -4702,7 +4702,7 @@
         </is>
       </c>
       <c r="B427" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="428">
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="B428" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="429">
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="B444" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="445">
@@ -5012,7 +5012,7 @@
         </is>
       </c>
       <c r="B458" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="459">
@@ -5062,7 +5062,7 @@
         </is>
       </c>
       <c r="B463" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="464">
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B469" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="470">
@@ -5182,7 +5182,7 @@
         </is>
       </c>
       <c r="B475" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="476">
@@ -5202,7 +5202,7 @@
         </is>
       </c>
       <c r="B477" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="478">
@@ -5272,7 +5272,7 @@
         </is>
       </c>
       <c r="B484" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="485">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="B486" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="487">
@@ -5302,7 +5302,7 @@
         </is>
       </c>
       <c r="B487" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="488">
@@ -5392,7 +5392,7 @@
         </is>
       </c>
       <c r="B496" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="497">
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="B504" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="505">
@@ -5542,7 +5542,7 @@
         </is>
       </c>
       <c r="B511" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="512">
@@ -5632,7 +5632,7 @@
         </is>
       </c>
       <c r="B520" t="n">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="521">
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B521" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="522">
@@ -5722,7 +5722,7 @@
         </is>
       </c>
       <c r="B529" t="n">
-        <v>17.5</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="530">
@@ -5742,7 +5742,7 @@
         </is>
       </c>
       <c r="B531" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="532">
@@ -5762,7 +5762,7 @@
         </is>
       </c>
       <c r="B533" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="534">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="B538" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="539">
@@ -5842,7 +5842,7 @@
         </is>
       </c>
       <c r="B541" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="542">
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B549" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="550">
@@ -6002,7 +6002,7 @@
         </is>
       </c>
       <c r="B557" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="558">
@@ -6032,7 +6032,7 @@
         </is>
       </c>
       <c r="B560" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="561">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="B564" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="565">
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="B568" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="569">
@@ -6162,7 +6162,7 @@
         </is>
       </c>
       <c r="B573" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="574">
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B586" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="587">
@@ -6302,7 +6302,7 @@
         </is>
       </c>
       <c r="B587" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="588">
@@ -6362,7 +6362,7 @@
         </is>
       </c>
       <c r="B593" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="594">
@@ -6372,7 +6372,7 @@
         </is>
       </c>
       <c r="B594" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="595">
@@ -6442,7 +6442,7 @@
         </is>
       </c>
       <c r="B601" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="602">
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B615" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="616">
@@ -6682,7 +6682,7 @@
         </is>
       </c>
       <c r="B625" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="626">
@@ -6712,7 +6712,7 @@
         </is>
       </c>
       <c r="B628" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="629">
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B633" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="634">
@@ -6802,7 +6802,7 @@
         </is>
       </c>
       <c r="B637" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="638">
@@ -6822,7 +6822,7 @@
         </is>
       </c>
       <c r="B639" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="640">
@@ -6912,7 +6912,7 @@
         </is>
       </c>
       <c r="B648" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="649">
@@ -6932,7 +6932,7 @@
         </is>
       </c>
       <c r="B650" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="651">
@@ -7082,7 +7082,7 @@
         </is>
       </c>
       <c r="B665" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="666">
@@ -7102,7 +7102,7 @@
         </is>
       </c>
       <c r="B667" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="668">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="B668" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="669">
@@ -7122,7 +7122,7 @@
         </is>
       </c>
       <c r="B669" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="670">
@@ -7142,7 +7142,7 @@
         </is>
       </c>
       <c r="B671" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="672">
@@ -7162,7 +7162,7 @@
         </is>
       </c>
       <c r="B673" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="674">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B674" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="675">
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B675" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="676">
@@ -7272,7 +7272,7 @@
         </is>
       </c>
       <c r="B684" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="685">
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="B687" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="688">
@@ -7332,7 +7332,7 @@
         </is>
       </c>
       <c r="B690" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="691">
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="B718" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="719">
@@ -7662,7 +7662,7 @@
         </is>
       </c>
       <c r="B723" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="724">
@@ -7692,7 +7692,7 @@
         </is>
       </c>
       <c r="B726" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="727">
@@ -7712,7 +7712,7 @@
         </is>
       </c>
       <c r="B728" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="729">
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B734" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="735">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B735" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="736">

--- a/horas.xlsx
+++ b/horas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B739"/>
+  <dimension ref="A1:B742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="292">
@@ -5312,7 +5312,7 @@
         </is>
       </c>
       <c r="B488" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="489">
@@ -5342,7 +5342,7 @@
         </is>
       </c>
       <c r="B491" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492">
@@ -5352,7 +5352,7 @@
         </is>
       </c>
       <c r="B492" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="493">
@@ -6042,7 +6042,7 @@
         </is>
       </c>
       <c r="B561" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="562">
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="B571" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="572">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="B642" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="643">
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B738" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="739">
@@ -7823,6 +7823,36 @@
       </c>
       <c r="B739" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>ROGÉRIO PÉREZ PEREIRA JÚNIOR</t>
+        </is>
+      </c>
+      <c r="B740" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>MATEUS PEREIRA FERNANDES</t>
+        </is>
+      </c>
+      <c r="B741" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>VINICIUS LIMA FERNANDES</t>
+        </is>
+      </c>
+      <c r="B742" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
